--- a/optimization-methods/secondLab/ЛР2 6.xlsx
+++ b/optimization-methods/secondLab/ЛР2 6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\github\VLSU-laboratory-work\optimization-methods\secondLab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71A322-5988-4EFD-9316-353EC705DE11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E80B9C-066B-48CC-B9A0-58030381F727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,22 +285,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -386,6 +380,1105 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>δFj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$32:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>270</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$32:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-00B5-4B8C-955B-4280CAB2904F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="416658544"/>
+        <c:axId val="416663944"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$C$31</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>F*j</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$B$32:$B$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>210</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>240</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>270</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Лист1!$C$32:$C$40</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>123</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>161</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>197</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>233</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>269</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>301</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>336</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-00B5-4B8C-955B-4280CAB2904F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="416658544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416663944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="416663944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="416658544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D98F7A-D12D-8FE6-CF44-EDBC6E4D4511}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W56"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,19 +1801,19 @@
     <col min="23" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -728,7 +1821,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -759,18 +1852,8 @@
       <c r="J3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -801,18 +1884,8 @@
       <c r="J4" s="5">
         <v>270</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
@@ -843,18 +1916,8 @@
       <c r="J5" s="8">
         <v>197</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -885,18 +1948,8 @@
       <c r="J6" s="6">
         <v>192</v>
       </c>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -927,18 +1980,8 @@
       <c r="J7" s="6">
         <v>220</v>
       </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -969,18 +2012,8 @@
       <c r="J8" s="6">
         <v>202</v>
       </c>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -1011,52 +2044,8 @@
       <c r="J9" s="6">
         <v>202</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1081,26 +2070,14 @@
       <c r="H12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1125,26 +2102,14 @@
       <c r="H13" s="1">
         <v>8</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="12">
         <v>9</v>
       </c>
       <c r="J13" s="1">
         <v>10</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>0</v>
       </c>
@@ -1169,26 +2134,14 @@
       <c r="H14" s="1">
         <v>0</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="12">
         <v>0</v>
       </c>
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>30</v>
       </c>
@@ -1199,44 +2152,28 @@
         <v>36</v>
       </c>
       <c r="D15" s="1">
-        <f>MAX(O3:O4)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E15" s="6">
         <v>44</v>
       </c>
       <c r="F15" s="1">
-        <f>MAX(Q3:Q4)</f>
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="G15" s="6">
         <v>37</v>
       </c>
       <c r="H15" s="1">
-        <f>MAX(S3:S4)</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="16">
+        <v>44</v>
+      </c>
+      <c r="I15" s="13">
         <v>42</v>
       </c>
       <c r="J15" s="1">
-        <f>MAX(U3:U4)</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>60</v>
       </c>
@@ -1247,44 +2184,28 @@
         <v>66</v>
       </c>
       <c r="D16" s="1">
-        <f>MAX(O5:O7)</f>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="E16" s="6">
         <v>79</v>
       </c>
       <c r="F16" s="1">
-        <f>MAX(Q5:Q7)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="G16" s="6">
         <v>75</v>
       </c>
       <c r="H16" s="1">
-        <f>MAX(S5:S7)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="16">
+        <v>81</v>
+      </c>
+      <c r="I16" s="13">
         <v>71</v>
       </c>
       <c r="J16" s="1">
-        <f>MAX(U5:U7)</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>90</v>
       </c>
@@ -1295,44 +2216,28 @@
         <v>100</v>
       </c>
       <c r="D17" s="1">
-        <f>MAX(O8:O11)</f>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="E17" s="6">
         <v>116</v>
       </c>
       <c r="F17" s="1">
-        <f>MAX(Q8:Q11)</f>
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="G17" s="6">
         <v>103</v>
       </c>
       <c r="H17" s="1">
-        <f>MAX(S8:S11)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="16">
+        <v>119</v>
+      </c>
+      <c r="I17" s="13">
         <v>106</v>
       </c>
       <c r="J17" s="1">
-        <f>MAX(U8:U11)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>120</v>
       </c>
@@ -1343,44 +2248,28 @@
         <v>127</v>
       </c>
       <c r="D18" s="1">
-        <f>MAX(O12:O16)</f>
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E18" s="6">
         <v>148</v>
       </c>
       <c r="F18" s="1">
-        <f>MAX(Q12:Q16)</f>
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="G18" s="6">
         <v>128</v>
       </c>
       <c r="H18" s="1">
-        <f>MAX(S12:S16)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="16">
+        <v>155</v>
+      </c>
+      <c r="I18" s="13">
         <v>135</v>
       </c>
       <c r="J18" s="1">
-        <f>MAX(U12:U16)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>150</v>
       </c>
@@ -1391,44 +2280,28 @@
         <v>148</v>
       </c>
       <c r="D19" s="1">
-        <f>MAX(O17:O22)</f>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="E19" s="6">
         <v>176</v>
       </c>
       <c r="F19" s="1">
-        <f>MAX(Q17:Q22)</f>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="G19" s="6">
         <v>153</v>
       </c>
       <c r="H19" s="1">
-        <f>MAX(S17:S22)</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="16">
+        <v>191</v>
+      </c>
+      <c r="I19" s="13">
         <v>161</v>
       </c>
       <c r="J19" s="1">
-        <f>MAX(U17:U22)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>180</v>
       </c>
@@ -1439,44 +2312,28 @@
         <v>166</v>
       </c>
       <c r="D20" s="1">
-        <f>MAX(O23:O29)</f>
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="E20" s="6">
         <v>197</v>
       </c>
       <c r="F20" s="1">
-        <f>MAX(Q23:Q29)</f>
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="G20" s="6">
         <v>175</v>
       </c>
       <c r="H20" s="1">
-        <f>MAX(S23:S29)</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
+        <v>227</v>
+      </c>
+      <c r="I20" s="13">
         <v>176</v>
       </c>
       <c r="J20" s="1">
-        <f>MAX(U23:U29)</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>210</v>
       </c>
@@ -1487,44 +2344,28 @@
         <v>180</v>
       </c>
       <c r="D21" s="1">
-        <f>MAX(O30:O37)</f>
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="E21" s="6">
         <v>210</v>
       </c>
       <c r="F21" s="1">
-        <f>MAX(Q30:Q37)</f>
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="G21" s="6">
         <v>192</v>
       </c>
       <c r="H21" s="1">
-        <f>MAX(S30:S37)</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="16">
+        <v>259</v>
+      </c>
+      <c r="I21" s="13">
         <v>191</v>
       </c>
       <c r="J21" s="1">
-        <f>MAX(U30:U37)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>240</v>
       </c>
@@ -1535,44 +2376,28 @@
         <v>190</v>
       </c>
       <c r="D22" s="1">
-        <f>MAX(O38:O46)</f>
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="E22" s="6">
         <v>218</v>
       </c>
       <c r="F22" s="1">
-        <f>MAX(Q38:Q46)</f>
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="G22" s="6">
         <v>199</v>
       </c>
       <c r="H22" s="1">
-        <f>MAX(S38:S46)</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="16">
+        <v>294</v>
+      </c>
+      <c r="I22" s="13">
         <v>201</v>
       </c>
       <c r="J22" s="1">
-        <f>MAX(U38:U46)</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-      <c r="T22" s="14"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>270</v>
       </c>
@@ -1583,56 +2408,28 @@
         <v>192</v>
       </c>
       <c r="D23" s="1">
-        <f>MAX(O47:O56)</f>
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="E23" s="6">
         <v>220</v>
       </c>
       <c r="F23" s="1">
-        <f>MAX(Q47:Q56)</f>
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="G23" s="6">
         <v>202</v>
       </c>
       <c r="H23" s="1">
-        <f>MAX(S47:S56)</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="16">
+        <v>328</v>
+      </c>
+      <c r="I23" s="13">
         <v>202</v>
       </c>
       <c r="J23" s="1">
-        <f>MAX(U47:U56)</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1654,19 +2451,8 @@
       <c r="J25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -1694,19 +2480,8 @@
       <c r="J26" s="4">
         <v>270</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
         <v>27</v>
       </c>
@@ -1728,31 +2503,8 @@
       <c r="J27" s="4">
         <v>336</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
@@ -1760,30 +2512,8 @@
         <f>J27/J26</f>
         <v>1.2444444444444445</v>
       </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-      <c r="T29" s="14"/>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N30" s="14"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1805,18 +2535,8 @@
       <c r="G31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -1841,18 +2561,8 @@
         <f t="shared" ref="G32:G40" si="2">1/F32</f>
         <v>1</v>
       </c>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="T32" s="14"/>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -1878,18 +2588,8 @@
         <f t="shared" si="2"/>
         <v>1.0232558139534884</v>
       </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>3</v>
       </c>
@@ -1915,18 +2615,8 @@
         <f t="shared" si="2"/>
         <v>1.0731707317073171</v>
       </c>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="T34" s="14"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>4</v>
       </c>
@@ -1952,18 +2642,8 @@
         <f t="shared" si="2"/>
         <v>1.0931677018633541</v>
       </c>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="14"/>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>5</v>
       </c>
@@ -1989,18 +2669,8 @@
         <f t="shared" si="2"/>
         <v>1.116751269035533</v>
       </c>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>6</v>
       </c>
@@ -2026,18 +2696,8 @@
         <f t="shared" si="2"/>
         <v>1.1330472103004292</v>
       </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
-      <c r="S37" s="14"/>
-      <c r="T37" s="14"/>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>7</v>
       </c>
@@ -2063,18 +2723,8 @@
         <f t="shared" si="2"/>
         <v>1.1449814126394051</v>
       </c>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>8</v>
       </c>
@@ -2100,18 +2750,8 @@
         <f t="shared" si="2"/>
         <v>1.169435215946844</v>
       </c>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>9</v>
       </c>
@@ -2137,208 +2777,6 @@
         <f t="shared" si="2"/>
         <v>1.1785714285714286</v>
       </c>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N46" s="14"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N47" s="14"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="14"/>
-      <c r="R47" s="14"/>
-      <c r="S47" s="14"/>
-      <c r="T47" s="14"/>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="N48" s="14"/>
-      <c r="O48" s="14"/>
-      <c r="P48" s="14"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="14"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-    </row>
-    <row r="49" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-    </row>
-    <row r="50" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N50" s="14"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-    </row>
-    <row r="51" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N51" s="14"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-    </row>
-    <row r="52" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N52" s="14"/>
-      <c r="O52" s="14"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-    </row>
-    <row r="53" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N53" s="14"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-    </row>
-    <row r="54" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N54" s="14"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-    </row>
-    <row r="55" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N55" s="14"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-    </row>
-    <row r="56" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N56" s="14"/>
-      <c r="O56" s="14"/>
-      <c r="P56" s="14"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="14"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2346,5 +2784,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>